--- a/assets/formatos_cargue/08_formato_cargue_temas.xlsx
+++ b/assets/formatos_cargue/08_formato_cargue_temas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ele4\assets\formatos_cargue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ele\assets\formatos_cargue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>cod tema</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>ID área</t>
+  </si>
+  <si>
+    <t>Cláse dinámica</t>
   </si>
 </sst>
 </file>
@@ -811,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,6 +1066,12 @@
       <c r="B8">
         <v>601</v>
       </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
